--- a/biology/Botanique/Crassula_muscosa/Crassula_muscosa.xlsx
+++ b/biology/Botanique/Crassula_muscosa/Crassula_muscosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crassula muscosa, du latin muscosus: mousseux, (synonyme: Crassula lycopodioides[1] Lamarck) est une plante succulente invasive, originaire d'Afrique du Sud qui appartient au genre Crassula. Cette plante est largement répandue comme petite plante ornementale d'intérieur[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crassula muscosa, du latin muscosus: mousseux, (synonyme: Crassula lycopodioides Lamarck) est une plante succulente invasive, originaire d'Afrique du Sud qui appartient au genre Crassula. Cette plante est largement répandue comme petite plante ornementale d'intérieur.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante prend la forme d'un petit buisson qui peut atteindre une vingtaine de centimètres de hauteur avec des fleurs minuscules d'un jaune verdâtre.
 </t>
@@ -542,13 +556,15 @@
           <t>Quelques variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Crassula muscosa var. accuminata[3]
-Crassula muscosa var. muscosa[4]
-Crassula muscosa var. rastafarii[5]
-Crassula muscosa var. sinuata[6]
-Crassula muscosa var. variegata[7]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Crassula muscosa var. accuminata
+Crassula muscosa var. muscosa
+Crassula muscosa var. rastafarii
+Crassula muscosa var. sinuata
+Crassula muscosa var. variegata</t>
         </is>
       </c>
     </row>
